--- a/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom1.xlsx
+++ b/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/github/dkramnik/Eagle-Public/isg-clock-generator-rev1/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FAE518-0169-124B-9320-5D100B512D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CA9B5-B409-A04B-83D3-63672AF0E137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8680" yWindow="-28340" windowWidth="51200" windowHeight="28340" xr2:uid="{6597577E-C5F4-4342-9F05-DB4BF1A6ABAD}"/>
+    <workbookView xWindow="-8680" yWindow="-28340" windowWidth="51200" windowHeight="27460" xr2:uid="{6597577E-C5F4-4342-9F05-DB4BF1A6ABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom1.xlsx
+++ b/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/github/dkramnik/Eagle-Public/isg-clock-generator-rev1/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CA9B5-B409-A04B-83D3-63672AF0E137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DCE13B-1FE3-BA48-B3B5-D8B4B8559A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8680" yWindow="-28340" windowWidth="51200" windowHeight="27460" xr2:uid="{6597577E-C5F4-4342-9F05-DB4BF1A6ABAD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540" xr2:uid="{6597577E-C5F4-4342-9F05-DB4BF1A6ABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="isg_clock_generator_rev1_bom_ulp" localSheetId="0">Sheet1!$B$1:$O$47</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{314C7B0E-39C5-BC4B-9BAB-908A6F9D0995}" name="isg-clock-generator-rev1-bom-ulp" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Admin/Documents/github/dkramnik/Eagle-Public/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom-ulp.csv" semicolon="1">
+    <textPr sourceFile="/Users/Admin/Documents/github/dkramnik/Eagle-Public/isg-clock-generator-rev1/bom/isg-clock-generator-rev1-bom-ulp.csv" semicolon="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="175">
   <si>
     <t>Value</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>142-0701-881</t>
   </si>
   <si>
     <t>RES SMD 0 OHM 1% 1/10W 0603</t>
@@ -411,9 +408,6 @@
     <t>C1, C3, C10, C48</t>
   </si>
   <si>
-    <t>J657-ND</t>
-  </si>
-  <si>
     <t>Cinch Connectivity Solutions Johnson</t>
   </si>
   <si>
@@ -547,6 +541,72 @@
   </si>
   <si>
     <t>C56, C57</t>
+  </si>
+  <si>
+    <t>S1011EC-03-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 3POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PRPC003SAAN-RC</t>
+  </si>
+  <si>
+    <t>Adam Tech version OOS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
+    <t>PH2-06-UA</t>
+  </si>
+  <si>
+    <t>2057-PH2-06-UA-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>PH2-10-UA</t>
+  </si>
+  <si>
+    <t>2057-PH2-10-UA-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 16POS 2.54MM</t>
+  </si>
+  <si>
+    <t>2057-PH2-16-UA-ND</t>
+  </si>
+  <si>
+    <t>PH2-16-UA</t>
+  </si>
+  <si>
+    <t>S1011EC-02-ND</t>
+  </si>
+  <si>
+    <t>PRPC002SAAN-RC</t>
+  </si>
+  <si>
+    <t>Locking connector, 0022112022 is gold plated version</t>
+  </si>
+  <si>
+    <t>"0022232021"</t>
+  </si>
+  <si>
+    <t>J502-ND</t>
+  </si>
+  <si>
+    <t>142-0701-801</t>
+  </si>
+  <si>
+    <t>Note: SMT SMA for 1.6mm PCB thickness</t>
   </si>
 </sst>
 </file>
@@ -973,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3497D5F7-90B3-0942-9374-55D394E7ABF4}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,22 +1045,22 @@
     <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.83203125" customWidth="1"/>
+    <col min="7" max="7" width="90.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -1018,25 +1078,25 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1051,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1065,15 +1125,15 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A47" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -1084,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -1098,15 +1158,15 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -1117,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -1131,13 +1191,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1148,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -1162,13 +1222,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1179,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -1193,13 +1253,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1210,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>7</v>
@@ -1224,13 +1284,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1241,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -1255,13 +1315,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1272,7 +1332,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -1286,13 +1346,13 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -1303,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -1317,13 +1377,13 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -1331,10 +1391,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
@@ -1348,13 +1408,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1365,7 +1425,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1379,13 +1439,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -1393,16 +1453,16 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1410,13 +1470,13 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -1429,25 +1489,27 @@
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -1457,30 +1519,42 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -1490,30 +1564,40 @@
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -1521,40 +1605,42 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -1564,30 +1650,42 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -1597,40 +1695,40 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -1640,40 +1738,42 @@
         <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="2">
-        <v>22232021</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -1683,30 +1783,40 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -1716,30 +1826,40 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -1750,37 +1870,37 @@
         <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -1788,40 +1908,40 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="H24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -1832,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>10</v>
@@ -1841,28 +1961,28 @@
         <v>39</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -1873,37 +1993,37 @@
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="4">
@@ -1911,40 +2031,40 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -1952,40 +2072,40 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -1998,10 +2118,10 @@
         <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
@@ -2011,12 +2131,14 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -2042,12 +2164,14 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -2066,19 +2190,21 @@
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="3">
@@ -2089,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -2103,13 +2229,13 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="3">
@@ -2120,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>14</v>
@@ -2134,13 +2260,13 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="3">
@@ -2148,16 +2274,16 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2165,13 +2291,13 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="3">
@@ -2179,16 +2305,16 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2196,13 +2322,13 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="3">
@@ -2210,16 +2336,16 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2227,13 +2353,13 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="3">
@@ -2241,16 +2367,16 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2258,13 +2384,13 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="3">
@@ -2272,16 +2398,16 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2289,13 +2415,13 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="3">
@@ -2303,16 +2429,16 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2320,13 +2446,13 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="3">
@@ -2334,16 +2460,16 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2351,13 +2477,13 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="3">
@@ -2365,16 +2491,16 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2382,13 +2508,13 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="3">
@@ -2396,16 +2522,16 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2413,13 +2539,13 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <f>A42+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="3">
@@ -2427,16 +2553,16 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -2444,13 +2570,13 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <f>A43+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="3">
@@ -2458,16 +2584,16 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -2475,13 +2601,13 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <f>A44+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="3">
@@ -2489,16 +2615,16 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2506,13 +2632,13 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="3">
@@ -2520,16 +2646,16 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2537,13 +2663,13 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="3">
@@ -2551,16 +2677,16 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2568,7 +2694,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N47" s="3"/>
     </row>
